--- a/PRODUTOS/Limpeza/Limpeza - Inseticidas.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Inseticidas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Inseticida Sbp Multi Inseticida 285ml</t>
+          <t>Inset Aero Raid 420ml Mt Barat Lev+pag-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4be5952-9a05-4899-bc01-c556cfa4b0fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8a3c2bd-3375-410e-8f87-049fbe3a422a.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7894650005569</t>
         </is>
       </c>
     </row>
@@ -488,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Inseticida Aero Sbp Multi 380ml Emb Econ</t>
+          <t>Inseticida Aero Sbp Multi 380ml Eucalipt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a484e536-a594-4439-b66f-9edd3e5b532d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e75c232a-ce0b-475d-8a56-3fc864057db4.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891035618543</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Inset Refil Elet Sbp Citronela Lv12 Pg10</t>
+          <t>Inseticida Aero Sbp Multi 380ml Emb Econ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4d64406-99b1-444b-ac09-3b393c06ccd5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a484e536-a594-4439-b66f-9edd3e5b532d.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891035618567</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mult Inset Sbp Eucalip 450ml Lv+pag Mens</t>
+          <t>Inset Dulbarmiga 1l</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3f3df9e-e49d-4948-b37f-9b7410e2155b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21a3773d-24ab-47ed-a998-d636eb5efd71.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898932889052</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Inset Aero Sbpmulti 380ml Citro Emb Econ</t>
+          <t>Kit Inset Dulbarmiga Un</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c1a6eca-5554-4070-a974-8e5df1de8fbb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/890ce144-5e27-4495-ba83-7f07c3253c2d.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898932889052</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inset Aero Raid 420ml Aqua Ofert Espec</t>
+          <t>Sbp Elet 45 Noites Rf 35ml Citronela</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0de2fac-23ae-4d48-9837-acf256ec3f10.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/679aacfe-4730-44e6-82aa-1328779c9e8a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891035618277</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inset Aero Raid 420ml Ole De Euca Lv+pg-</t>
+          <t>Inset Refil Elet Sbp Citronela Lv12 Pg10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c497d1e-a10a-47b1-8de1-2776e917e557.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4d64406-99b1-444b-ac09-3b393c06ccd5.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891035025020</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Inset Aero Raid 420ml Mt Barat Lev+pag-</t>
+          <t>Sbp Multi Inset.automat.refil 250 Ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 74,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8a3c2bd-3375-410e-8f87-049fbe3a422a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ab98356-7300-463a-922e-d1d19d018a22.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891035024184</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Inseticida Baygon 360ml Ultra</t>
+          <t>Inset Sbp 12hs Refil Lv12pg10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f85aadd-ffd2-474e-b6eb-62d0503aee74.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1aefb28-38a7-4a43-91ce-75f7ea96b662.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891035024696</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mata Formigas Formibel 10gr</t>
+          <t>Sbp 45 Noites Refil 35ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd334df0-329b-4ac9-bd19-5d9ed7f01bc4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/406f7846-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891035618277</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Inset Aero Raid 420ml Citronela Lev+pag-</t>
+          <t>Inseticida Eletrico Sbp 45 Noites Refil 35ml C/2un</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f133a30d-938a-4b17-97fb-6bfdce989f9e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbbafdb7-a33a-427e-adad-8c1f4c4b51db.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891035618277</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Inseticida Raid Prot Refil Past L12p10 Trad</t>
+          <t>Inse Detefon Ação Total Mata Tudo 300ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c36fa690-6ee1-4a08-82e0-42b67488ab71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1a8253f-2164-44e7-8cc1-0d5a9a635e18.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891035651007</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Inset Baygon Barat/formig 395ml Emb Eco</t>
+          <t>Inseticida Detefon Acao Total 500ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 15,93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f320d115-da3c-4de1-83a6-530566d825c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46187d54-4f30-4da6-b543-486ac7a78c6d.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891035651007</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Inset Baygon Aero Eucalipto 360ml</t>
+          <t>Inseticida Espirais Baygon 10un</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1c7c2f0-7ad5-43dc-9e2f-1ec2127be5dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dedfd3d0-de34-476e-b69c-0a07d00738b2.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7894650079089</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Multi Inset Sbp Citronela 300ml Grt150ml</t>
+          <t>Inseticida Aerosol Sbp 360ml Anti Aedes Aegypt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30539de2-0d97-4ee5-9a1d-cb8adcbd956e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb9a09a2-8a62-408f-9e0f-a7615404a012.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891035002458</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Inseticida Aerosol Sbp 360ml Anti Aedes Aegypt</t>
+          <t>Inseticida Raid Elétrico 45 Noites Refil 32,9ml + Aparelho</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb9a09a2-8a62-408f-9e0f-a7615404a012.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa12005e-02fa-49d5-8a08-e200ac263592.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7894650000649</t>
         </is>
       </c>
     </row>
@@ -893,557 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Raid Elet Liq 45n Ref 32,9ml1+1 50% Desc</t>
+          <t>Inset Aero Raid 420ml Citronela Lev+pag-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b40a81ba-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sbp 45 Noites Refil 35ml + Apr Grat Suav</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ed5bbf1-d869-4de5-8385-d18f9232a7fd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Inset Baygon Aero Açao T 360ml Emb Econ</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef41d9c3-f67d-492f-a44a-e263e079d16a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Inseticida Baygon Multi Plus 300ml Trad</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/970de26b-77c5-4165-a053-e01c40c95d33.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Inset Sbp 12hs Refil Lv12pg10</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1aefb28-38a7-4a43-91ce-75f7ea96b662.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Inseticida Raid Elétrico 45 Noites Refil 32,9ml + Aparelho</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa12005e-02fa-49d5-8a08-e200ac263592.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Inseticida Isca Mata Baratas Raid 6unid.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 48,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5dfeafb-bdc5-4fd8-b79a-f1e401566971.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sbp Elet 45 Noites Rf 35ml Citronela</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/679aacfe-4730-44e6-82aa-1328779c9e8a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Inseticida Espirais Baygon 10un</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dedfd3d0-de34-476e-b69c-0a07d00738b2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Inse Detefon Ação Total Mata Tudo 300ml</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1a8253f-2164-44e7-8cc1-0d5a9a635e18.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Inseticida Raid 45 Noites Liquido Refil</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f98babae-12e3-420f-9c62-8872b6e6e3ce.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sbp 45 Noites Refil 35ml</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/406f7846-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Inseticida Raid Eletrico Liquido 32,9ml Refil+aparelho</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38837bb1-4eba-4301-a0af-3e2e87a063bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Aparelho +pastilha Sbp 12 Horas</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af1afea3-3ad9-4cad-96da-2ba780805ca6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Detefon Espirais C/10</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41f58d98-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Inset Dulbarmiga 1l</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21a3773d-24ab-47ed-a998-d636eb5efd71.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Inseticida Ferra Cupim Spray 400 Ml</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95755fd4-7d7c-4dab-a88f-a7bedd121d84.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Baygon Acao Total 475ml</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47d605ff-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Inseticida Detefon Acao Total 500ml</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 15,93</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46187d54-4f30-4da6-b543-486ac7a78c6d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Kit Inset Dulbarmiga Un</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/890ce144-5e27-4495-ba83-7f07c3253c2d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Inseticidas</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sbp Multi Inset.automat.refil 250 Ml</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 74,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ab98356-7300-463a-922e-d1d19d018a22.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f133a30d-938a-4b17-97fb-6bfdce989f9e.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7894650008553</t>
         </is>
       </c>
     </row>
